--- a/Benchmarking/comparison_of_models/carbonGenesCompared.xlsx
+++ b/Benchmarking/comparison_of_models/carbonGenesCompared.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
-  <si>
-    <t>{}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Gene</t>
   </si>
   <si>
     <t>iGD1575</t>
@@ -32,6 +32,12 @@
     <t>coreModelB</t>
   </si>
   <si>
+    <t>coreModelC</t>
+  </si>
+  <si>
+    <t>coreModelD</t>
+  </si>
+  <si>
     <t>fastcore</t>
   </si>
   <si>
@@ -102,15 +108,6 @@
   </si>
   <si>
     <t>smc02500</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>coreModelC</t>
-  </si>
-  <si>
-    <t>coreModelD</t>
   </si>
 </sst>
 </file>
@@ -131,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,22 +138,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,75 +183,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>28</v>
+      <c r="V1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -330,7 +319,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -343,7 +332,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.98399999999999999</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -352,7 +341,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.98699999999999999</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -385,10 +374,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.91300000000000003</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -398,7 +387,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -466,7 +455,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -534,8 +523,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -602,8 +591,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -670,8 +659,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0.996</v>
@@ -738,8 +727,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -806,8 +795,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
